--- a/data/memberInformation.xlsx
+++ b/data/memberInformation.xlsx
@@ -188,7 +188,7 @@
     <t>£3,240</t>
   </si>
   <si>
-    <t>£3,176</t>
+    <t>£3,140</t>
   </si>
   <si>
     <t>£469</t>
@@ -305,25 +305,25 @@
     <t>£3,876</t>
   </si>
   <si>
-    <t>£3,816</t>
+    <t>£116</t>
   </si>
   <si>
     <t>£1,349</t>
   </si>
   <si>
-    <t>£1,350</t>
+    <t>£120</t>
   </si>
   <si>
     <t>["2199826101","11/05/1967","Male","SK","N","Y","£744,660.21","Sodexo Ltd - Monthly Paid","Registered","2727121101","12/11/1966","Male","CH","N","Y","£679,046.80","Sodexo Ltd - Monthly Paid","Registered","2041926101","08/09/1969","Male","SW","N","Y","£545,537.51","Sodexo Ltd - Monthly Paid","Registered","2848826101","13/10/1964","Male","PR","N","Y","£519,377.61","Sodexo Ltd - Monthly Paid","Registered","2662926101","18/11/1974","Female","RG","N","Y","£441,670.58","Sodexo Ltd - Monthly Paid","Registered","2764815101","02/04/1972","Male","CM","N","Y","£399,185.19","Sodexo Ltd - Monthly Paid","Registered","2059826101","19/03/1970","Male","GL","N","Y","£372,953.12","Sodexo Ltd - Monthly Paid","Registered","2168009001","01/12/1963","Female","GU","N","Y","£368,589.40","Sodexo Global Services Ltd","Registered","2906009001","23/10/1973","Male","EH","N","Y","£359,507.25","Sodexo Global Services Ltd","Registered","2348298001","10/02/1976","Male","CW","N","Y","£351,346.92","Sodexo Ltd - Monthly Paid","Registered","2457009001","09/11/1968","Male","B6","N","Y","£341,154.32","Sodexo Global Services Ltd","Registered","2428826101","28/01/1970","Female","SK","N","Y","£310,308.50","Sodexo Ltd - Monthly Paid","Registered","2585009001","06/03/1965","Male","N6","N","Y","£304,819.87","Sodexo Global Services Ltd","Registered","2306926101","24/10/1968","Male","SL","N","Y","£301,991.11","Sodexo Ltd - Monthly Paid","Registered","2546926101","23/05/1969","Female","RG","N","Y","£298,996.99","Sodexo Ltd - Monthly Paid","Registered","2934280101","29/12/1968","Female","OX","N","Y","£297,041.97","Sodexo Ltd - Monthly Paid","Not Registered","2418676101","31/05/1974","Male","BR","N","Y","£294,368.51","Sodexo Ltd - Monthly Paid","Registered","2160141101","20/08/1968","Male","SW","N","Y","£292,700.21","Sodexo Ltd - Monthly Paid","Registered","2046009001","15/09/1966","Female","EH","N","Y","£282,112.95","Sodexo Ltd - Monthly Paid","Registered","2345926101","01/08/1969","Male","EH","N","Y","£279,685.55","Sodexo Ltd - Monthly Paid","Registered","2607826101","23/11/1973","Male","SN","N","Y","£278,696.80","Sodexo Ltd - Monthly Paid","Not Registered","2018926101","06/05/1967","Male","RG","N","Y","£273,452.07","Sodexo Global Services Ltd","Not Registered","2805073301","19/07/1974","Male","N1","N","Y","£267,799.35","Sodexo Global Services Ltd","Registered","2759826101","20/01/1975","Male","E1","N","Y","£265,132.34","Sodexo Ltd - Monthly Paid","Registered","2969826101","26/01/1974","Female","TW","N","Y","£262,395.51","Sodexo Global Services Ltd","Registered","2988926101","18/03/1973","Male","TN","N","Y","£259,655.18","Sodexo Global Services Ltd","Not Registered","2471926101","28/05/1969","Male","OX","N","Y","£257,577.32","Sodexo Ltd - Monthly Paid","Not Registered","2227826101","31/05/1964","Male","SO","N","Y","£241,097.68","Sodexo Ltd - Monthly Paid","Not Registered","2091922101","12/04/1964","Female","DH","N","Y","£228,176.68","Sodexo Ltd - Monthly Paid","Not Registered"]</t>
   </si>
   <si>
-    <t>["2199826101","11/05/1967","Male","SK","N","Y","£737,305.45","Sodexo Ltd - Monthly Paid","Registered","2727121101","12/11/1966","Male","CH","N","Y","£668,459.31","Sodexo Ltd - Monthly Paid","Registered","2041926101","08/09/1969","Male","SW","N","Y","£539,194.35","Sodexo Ltd - Monthly Paid","Registered","2848826101","13/10/1964","Male","PR","N","Y","£513,792.73","Sodexo Ltd - Monthly Paid","Registered","2662926101","18/11/1974","Female","RG","N","Y","£436,535.13","Sodexo Ltd - Monthly Paid","Registered","2764815101","02/04/1972","Male","CM","N","Y","£394,543.72","Sodexo Ltd - Monthly Paid","Registered","2059826101","19/03/1970","Male","GL","N","Y","£368,616.66","Sodexo Ltd - Monthly Paid","Registered","2168009001","01/12/1963","Female","GU","N","Y","£365,146.18","Sodexo Global Services Ltd","Registered","2906009001","23/10/1973","Male","EH","N","Y","£354,555.62","Sodexo Global Services Ltd","Registered","2348298001","10/02/1976","Male","CW","N","Y","£347,261.68","Sodexo Ltd - Monthly Paid","Registered","2457009001","09/11/1968","Male","B6","N","Y","£337,187.60","Sodexo Global Services Ltd","Registered","2428826101","28/01/1970","Female","SK","N","Y","£306,700.43","Sodexo Ltd - Monthly Paid","Registered","2585009001","06/03/1965","Male","N6","N","Y","£301,275.62","Sodexo Global Services Ltd","Registered","2306926101","24/10/1968","Male","SL","N","Y","£298,479.75","Sodexo Ltd - Monthly Paid","Registered","2546926101","23/05/1969","Female","RG","N","Y","£295,520.45","Sodexo Ltd - Monthly Paid","Registered","2934280101","29/12/1968","Female","OX","N","Y","£293,540.88","Sodexo Ltd - Monthly Paid","Not Registered","2418676101","31/05/1974","Male","BR","N","Y","£290,945.78","Sodexo Ltd - Monthly Paid","Registered","2160141101","20/08/1968","Male","SW","N","Y","£289,296.88","Sodexo Ltd - Monthly Paid","Registered","2046009001","15/09/1966","Female","EH","N","Y","£278,148.48","Sodexo Ltd - Monthly Paid","Registered","2345926101","01/08/1969","Male","EH","N","Y","£276,433.55","Sodexo Ltd - Monthly Paid","Registered","2607826101","23/11/1973","Male","SN","N","Y","£275,456.29","Sodexo Ltd - Monthly Paid","Not Registered","2018926101","06/05/1967","Male","RG","N","Y","£270,272.55","Sodexo Global Services Ltd","Not Registered","2805073301","19/07/1974","Male","N1","N","Y","£262,991.61","Sodexo Global Services Ltd","Registered","2759826101","20/01/1975","Male","E1","N","Y","£262,049.56","Sodexo Ltd - Monthly Paid","Registered","2969826101","26/01/1974","Female","TW","N","Y","£259,344.54","Sodexo Global Services Ltd","Registered","2988926101","18/03/1973","Male","TN","N","Y","£256,636.08","Sodexo Global Services Ltd","Not Registered","2471926101","28/05/1969","Male","OX","N","Y","£254,582.38","Sodexo Ltd - Monthly Paid","Not Registered","2227826101","31/05/1964","Male","SO","N","Y","£238,535.85","Sodexo Ltd - Monthly Paid","Not Registered","2091922101","12/04/1964","Female","DH","N","Y","£225,523.59","Sodexo Ltd - Monthly Paid","Not Registered"]</t>
+    <t>["2199826101","11/05/1967","Male","SK","N","Y","£739,874.44","Sodexo Ltd - Monthly Paid","Registered","2727121101","12/11/1966","Male","CH","N","Y","£659,773.72","Sodexo Ltd - Monthly Paid","Registered","2041926101","08/09/1969","Male","SW","N","Y","£536,573.68","Sodexo Ltd - Monthly Paid","Registered","2848826101","13/10/1964","Male","PR","N","Y","£513,447.78","Sodexo Ltd - Monthly Paid","Registered","2662926101","18/11/1974","Female","RG","N","Y","£434,413.53","Sodexo Ltd - Monthly Paid","Registered","2764815101","02/04/1972","Male","CM","N","Y","£392,586.03","Sodexo Ltd - Monthly Paid","Registered","2168009001","01/12/1963","Female","GU","N","Y","£367,223.90","Sodexo Global Services Ltd","Registered","2059826101","19/03/1970","Male","GL","N","Y","£366,825.10","Sodexo Ltd - Monthly Paid","Registered","2906009001","23/10/1973","Male","EH","N","Y","£353,235.80","Sodexo Global Services Ltd","Registered","2348298001","10/02/1976","Male","CW","N","Y","£345,573.92","Sodexo Ltd - Monthly Paid","Registered","2457009001","09/11/1968","Male","B6","N","Y","£335,548.79","Sodexo Global Services Ltd","Registered","2428826101","28/01/1970","Female","SK","N","Y","£305,209.89","Sodexo Ltd - Monthly Paid","Registered","2585009001","06/03/1965","Male","N6","N","Y","£299,811.29","Sodexo Global Services Ltd","Registered","2306926101","24/10/1968","Male","SL","N","Y","£297,029.35","Sodexo Ltd - Monthly Paid","Registered","2546926101","23/05/1969","Female","RG","N","Y","£294,084.19","Sodexo Ltd - Monthly Paid","Registered","2934280101","29/12/1968","Female","OX","N","Y","£292,156.73","Sodexo Ltd - Monthly Paid","Not Registered","2418676101","31/05/1974","Male","BR","N","Y","£289,531.80","Sodexo Ltd - Monthly Paid","Registered","2160141101","20/08/1968","Male","SW","N","Y","£287,890.93","Sodexo Ltd - Monthly Paid","Registered","2046009001","15/09/1966","Female","EH","N","Y","£276,826.30","Sodexo Ltd - Monthly Paid","Registered","2345926101","01/08/1969","Male","EH","N","Y","£275,090.11","Sodexo Ltd - Monthly Paid","Registered","2607826101","23/11/1973","Male","SN","N","Y","£274,117.57","Sodexo Ltd - Monthly Paid","Not Registered","2018926101","06/05/1967","Male","RG","N","Y","£268,958.99","Sodexo Global Services Ltd","Not Registered","2759826101","20/01/1975","Male","E1","N","Y","£260,776.02","Sodexo Ltd - Monthly Paid","Registered","2805073301","19/07/1974","Male","N1","N","Y","£258,112.32","Sodexo Global Services Ltd","Registered","2969826101","26/01/1974","Female","TW","N","Y","£258,084.10","Sodexo Global Services Ltd","Registered","2988926101","18/03/1973","Male","TN","N","Y","£255,388.79","Sodexo Global Services Ltd","Not Registered","2471926101","28/05/1969","Male","OX","N","Y","£253,345.10","Sodexo Ltd - Monthly Paid","Not Registered","2227826101","31/05/1964","Male","SO","N","Y","£238,474.74","Sodexo Ltd - Monthly Paid","Not Registered","2028009001","17/12/1965","Male","W1","N","Y","£224,880.61","Sodexo Ltd - Monthly Paid","Registered","2091922101","12/04/1964","Female","DH","N","Y","£224,427.50","Sodexo Ltd - Monthly Paid","Not Registered","2650926101","04/05/1971","Female","TW","N","Y","£223,471.29","Sodexo Ltd - Monthly Paid","Registered","2071109001","19/08/1966","Female","DY","N","Y","£222,404.97","Sodexo Ltd - Monthly Paid","Registered","2499826101","22/12/1972","Male","WR","N","Y","£218,459.94","Sodexo Ltd - Monthly Paid","Registered","2724009001","06/11/1970","Male","CW","N","Y","£217,244.84","Sodexo Ltd - Monthly Paid","Registered"]</t>
   </si>
   <si>
     <t>["","","","","","","£172,519,154.48","",""]</t>
   </si>
   <si>
-    <t>["","","","","","","£170,484,130.31","",""]</t>
+    <t>["","","","","","","£168,858,689.23","",""]</t>
   </si>
 </sst>
 </file>
@@ -7825,7 +7825,7 @@
         <v>1273</v>
       </c>
       <c r="C3">
-        <v>1272</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
@@ -7843,7 +7843,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0.05</v>
@@ -7897,7 +7897,7 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6">
         <v>0.05</v>
@@ -9055,7 +9055,7 @@
         <v>15867</v>
       </c>
       <c r="C3" s="3">
-        <v>16055</v>
+        <v>16054</v>
       </c>
       <c r="D3" s="6">
         <v>0.05</v>
